--- a/13/1/1/Operaciones financieras 1990 a 2021 - Anual.xlsx
+++ b/13/1/1/Operaciones financieras 1990 a 2021 - Anual.xlsx
@@ -3213,16 +3213,16 @@
         <v>54</v>
       </c>
       <c r="B32">
-        <v>-6193007</v>
+        <v>-6188486</v>
       </c>
       <c r="C32">
-        <v>200917</v>
+        <v>198177</v>
       </c>
       <c r="D32">
         <v>2188236</v>
       </c>
       <c r="E32">
-        <v>1987319</v>
+        <v>1990059</v>
       </c>
       <c r="F32">
         <v>-6170963</v>
@@ -3237,7 +3237,7 @@
         <v>20352</v>
       </c>
       <c r="J32">
-        <v>-243313</v>
+        <v>-236052</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="P32">
-        <v>8086988</v>
+        <v>8086929</v>
       </c>
       <c r="Q32">
         <v>3551266</v>
@@ -3273,7 +3273,7 @@
         <v>1391285</v>
       </c>
       <c r="V32">
-        <v>4932269</v>
+        <v>4932210</v>
       </c>
       <c r="W32">
         <v>12955223</v>
@@ -3285,13 +3285,13 @@
         <v>12277</v>
       </c>
       <c r="Z32">
-        <v>8022954</v>
+        <v>8023014</v>
       </c>
       <c r="AA32">
         <v>-396547</v>
       </c>
       <c r="AB32">
-        <v>-14279995</v>
+        <v>-14275414</v>
       </c>
     </row>
   </sheetData>
